--- a/biology/Botanique/Liste_alphabétique_des_espèces_du_genre_Hymenophyllum/Liste_alphabétique_des_espèces_du_genre_Hymenophyllum.xlsx
+++ b/biology/Botanique/Liste_alphabétique_des_espèces_du_genre_Hymenophyllum/Liste_alphabétique_des_espèces_du_genre_Hymenophyllum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_alphab%C3%A9tique_des_esp%C3%A8ces_du_genre_Hymenophyllum</t>
+          <t>Liste_alphabétique_des_espèces_du_genre_Hymenophyllum</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Liste alphabétique de toutes les espèces appartenant au genre Hymenophyllum.
 Sommaire :
@@ -511,7 +523,7 @@
 Y
 Z
 Les espèces maintenues dans le genre Hymenophyllum sont repérées en caractère gras ; leur sous-genre d'appartenance est ajouté aussi en gras.
-Les données sont issues en premier de la révision taxonomique de la famille des Hymenéphyllacées de Ebihara et al.[1] ainsi que des index IPNI et TROPICOS (date de référence : octobre 2010). En cas d'ambiguïté, les informations de l'ouvrage de Carl Christensen, Index filicum - 1906, ont été utilisées[2].
+Les données sont issues en premier de la révision taxonomique de la famille des Hymenéphyllacées de Ebihara et al. ainsi que des index IPNI et TROPICOS (date de référence : octobre 2010). En cas d'ambiguïté, les informations de l'ouvrage de Carl Christensen, Index filicum - 1906, ont été utilisées.
 Les synonymies ont été supprimées ici : pour les retrouver, voir l'espèce concernée de l'article Hymenophyllum.
 </t>
         </is>
@@ -523,7 +535,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_alphab%C3%A9tique_des_esp%C3%A8ces_du_genre_Hymenophyllum</t>
+          <t>Liste_alphabétique_des_espèces_du_genre_Hymenophyllum</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -541,7 +553,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Hymenophyllum abietinum Hook. &amp; Grev. : sous-genre Mecodium
 Hymenophyllum abruptum Hook. : sous-genre Mecodium
@@ -612,7 +626,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_alphab%C3%A9tique_des_esp%C3%A8ces_du_genre_Hymenophyllum</t>
+          <t>Liste_alphabétique_des_espèces_du_genre_Hymenophyllum</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -630,7 +644,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hymenophyllum babindae Watts : sous-genre Hymenophyllum
 Hymenophyllum badium Hook. &amp; Grev. : sous-genre Globosa
@@ -684,7 +700,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_alphab%C3%A9tique_des_esp%C3%A8ces_du_genre_Hymenophyllum</t>
+          <t>Liste_alphabétique_des_espèces_du_genre_Hymenophyllum</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -702,7 +718,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Hymenophyllum caespitosum Christ : voir Hymenophyllum glebarium Christ
 Hymenophyllum caespitosum Fée	: Homonymie non levée
@@ -796,7 +814,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_alphab%C3%A9tique_des_esp%C3%A8ces_du_genre_Hymenophyllum</t>
+          <t>Liste_alphabétique_des_espèces_du_genre_Hymenophyllum</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -814,7 +832,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Hymenophyllum daedaleum Blume : sous-genre Globosa
 Hymenophyllum darwinii Hook.f. : voir Hymenophyllum abruptum Hook.
@@ -865,7 +885,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_alphab%C3%A9tique_des_esp%C3%A8ces_du_genre_Hymenophyllum</t>
+          <t>Liste_alphabétique_des_espèces_du_genre_Hymenophyllum</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -883,7 +903,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Hymenophyllum eboracense Croxall : sous-genre Globosa
 Hymenophyllum ectocarpon Fée : sous-genre Hymenophyllum
@@ -918,7 +940,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_alphab%C3%A9tique_des_esp%C3%A8ces_du_genre_Hymenophyllum</t>
+          <t>Liste_alphabétique_des_espèces_du_genre_Hymenophyllum</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -936,7 +958,9 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Hymenophyllum falklandicum Baker : sous-genre Hymenophyllum
 Hymenophyllum falklandicum f. andinum Diem &amp; J.S.Licht. : sous-genre Hymenophyllum
@@ -999,7 +1023,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_alphab%C3%A9tique_des_esp%C3%A8ces_du_genre_Hymenophyllum</t>
+          <t>Liste_alphabétique_des_espèces_du_genre_Hymenophyllum</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1017,7 +1041,9 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Hymenophyllum gardneri Bosch : sous-genre Hymenophyllum
 Hymenophyllum gardnerianum J.W.Sturm : sous-genre Sphaerocionium
@@ -1042,7 +1068,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_alphab%C3%A9tique_des_esp%C3%A8ces_du_genre_Hymenophyllum</t>
+          <t>Liste_alphabétique_des_espèces_du_genre_Hymenophyllum</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1060,7 +1086,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Hymenophyllum haematochroum Mett. : sous-genre Hymenophyllum
 Hymenophyllum halconeuse Copel. : sous-genre Hymenophyllum
@@ -1104,7 +1132,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_alphab%C3%A9tique_des_esp%C3%A8ces_du_genre_Hymenophyllum</t>
+          <t>Liste_alphabétique_des_espèces_du_genre_Hymenophyllum</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1122,7 +1150,9 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Hymenophyllum imbricatum Colenso : voir Hymenophyllum rarum R.Br.
 Hymenophyllum imbricatum Blume : sous-genre Globosa
@@ -1147,7 +1177,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_alphab%C3%A9tique_des_esp%C3%A8ces_du_genre_Hymenophyllum</t>
+          <t>Liste_alphabétique_des_espèces_du_genre_Hymenophyllum</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1165,7 +1195,9 @@
           <t>J</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Hymenophyllum jalapense Schltdl. &amp; Cham. : sous-genre Mecodium
 Hymenophyllum jamesonii Hook. : sous-genre Hymenophyllum
@@ -1183,7 +1215,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_alphab%C3%A9tique_des_esp%C3%A8ces_du_genre_Hymenophyllum</t>
+          <t>Liste_alphabétique_des_espèces_du_genre_Hymenophyllum</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1201,7 +1233,9 @@
           <t>K</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Hymenophyllum kaieteurum Jenman : sous-genre Sphaerocionium
 Hymenophyllum karstenianum J.W.Sturm : sous-genre Sphaerocionium
@@ -1221,7 +1255,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_alphab%C3%A9tique_des_esp%C3%A8ces_du_genre_Hymenophyllum</t>
+          <t>Liste_alphabétique_des_espèces_du_genre_Hymenophyllum</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1239,7 +1273,9 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Hymenophyllum laciniosum Christ : sous-genre Mecodium
 Hymenophyllum laeve Ham. : sous-genre indéterminé
@@ -1286,7 +1322,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liste_alphab%C3%A9tique_des_esp%C3%A8ces_du_genre_Hymenophyllum</t>
+          <t>Liste_alphabétique_des_espèces_du_genre_Hymenophyllum</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1304,7 +1340,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Hymenophyllum macgillivrayi (Baker) Copel. : sous-genre Hymenophyllum
 Hymenophyllum macrocarpon W.Schaffn. ex E.Fourn. : sous-genre indéterminé
@@ -1378,7 +1416,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liste_alphab%C3%A9tique_des_esp%C3%A8ces_du_genre_Hymenophyllum</t>
+          <t>Liste_alphabétique_des_espèces_du_genre_Hymenophyllum</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1396,7 +1434,9 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Hymenophyllum nahuelhuapiense Diem &amp; J.S.Licht. : sous-genre Hymenophyllum
 Hymenophyllum nanostellatum Lellinger : sous-genre Sphaerocionium
@@ -1426,7 +1466,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liste_alphab%C3%A9tique_des_esp%C3%A8ces_du_genre_Hymenophyllum</t>
+          <t>Liste_alphabétique_des_espèces_du_genre_Hymenophyllum</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1444,7 +1484,9 @@
           <t>O</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Hymenophyllum obtusum Hook. &amp; Arn. : sous-genre Sphaerocionium
 Hymenophyllum odontophyllum Copel. : sous-genre Hymenophyllum
@@ -1469,7 +1511,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Liste_alphab%C3%A9tique_des_esp%C3%A8ces_du_genre_Hymenophyllum</t>
+          <t>Liste_alphabétique_des_espèces_du_genre_Hymenophyllum</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1487,7 +1529,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Hymenophyllum pachydermicum Ces. : sous-genre Hymenophyllum
 Hymenophyllum pallidum (Blume) Ebihara &amp; K.Iwats. : sous-genre Pleuromanes
@@ -1600,7 +1644,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Liste_alphab%C3%A9tique_des_esp%C3%A8ces_du_genre_Hymenophyllum</t>
+          <t>Liste_alphabétique_des_espèces_du_genre_Hymenophyllum</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1618,7 +1662,9 @@
           <t>Q</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Hymenophyllum quadrifidum Phil. : voir Hymenophyllum plicatum var. quadrifidum (Phil.) Looser
 Hymenophyllum quetrihuense Diem &amp; J.S.Licht. : sous-genre Hymenophyllum
@@ -1632,7 +1678,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Liste_alphab%C3%A9tique_des_esp%C3%A8ces_du_genre_Hymenophyllum</t>
+          <t>Liste_alphabétique_des_espèces_du_genre_Hymenophyllum</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1650,7 +1696,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Hymenophyllum raapii Gand. : sous-genre Globosa
 Hymenophyllum raddianum Müll.Berol. : sous-genre Sphaerocionium
@@ -1695,7 +1743,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Liste_alphab%C3%A9tique_des_esp%C3%A8ces_du_genre_Hymenophyllum</t>
+          <t>Liste_alphabétique_des_espèces_du_genre_Hymenophyllum</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1713,7 +1761,9 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>Hymenophyllum sabinifolium Baker : sous-genre Hymenophyllum
 Hymenophyllum saenzianum L.D.Gómez : sous-genre Sphaerocionium
@@ -1786,7 +1836,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Liste_alphab%C3%A9tique_des_esp%C3%A8ces_du_genre_Hymenophyllum</t>
+          <t>Liste_alphabétique_des_espèces_du_genre_Hymenophyllum</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1804,7 +1854,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t>Hymenophyllum tablaziense Christ : sous-genre Mecodium
 Hymenophyllum tabulare Bosch : sous-genre Mecodium
@@ -1871,7 +1923,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Liste_alphab%C3%A9tique_des_esp%C3%A8ces_du_genre_Hymenophyllum</t>
+          <t>Liste_alphabétique_des_espèces_du_genre_Hymenophyllum</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1889,7 +1941,9 @@
           <t>U</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t>Hymenophyllum ulei Christ &amp; Giesenh. : sous-genre Sphaerocionium
 Hymenophyllum umbratile Diem &amp; J.S.Licht. : sous-genre Hymenophyllum
@@ -1910,7 +1964,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Liste_alphab%C3%A9tique_des_esp%C3%A8ces_du_genre_Hymenophyllum</t>
+          <t>Liste_alphabétique_des_espèces_du_genre_Hymenophyllum</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1928,7 +1982,9 @@
           <t>V</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t>Hymenophyllum vacillans Christ : sous-genre Hymenophyllum
 Hymenophyllum valvatum Hook. &amp; Grev. : sous-genre Sphaerocionium
@@ -1953,7 +2009,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Liste_alphab%C3%A9tique_des_esp%C3%A8ces_du_genre_Hymenophyllum</t>
+          <t>Liste_alphabétique_des_espèces_du_genre_Hymenophyllum</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1971,7 +2027,9 @@
           <t>W</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t>Hymenophyllum walleri' Maiden &amp; Betche : sous-genre Hymenophyllum
 Hymenophyllum wercklei Christ : sous-genre Sphaerocionium
@@ -1990,7 +2048,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Liste_alphab%C3%A9tique_des_esp%C3%A8ces_du_genre_Hymenophyllum</t>
+          <t>Liste_alphabétique_des_espèces_du_genre_Hymenophyllum</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2008,7 +2066,9 @@
           <t>Z</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t>Hymenophyllum zeelandicum Bosch : sous-genre Hymenophyllum
 Hymenophyllum zeyheri Bosch : sous-genre Mecodium
